--- a/data/trans_dic/P25_10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_10-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece varices en las piernas</t>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>34,52%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 13,59</t>
+          <t>4,12; 14,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,08</t>
+          <t>8,3; 17,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,62</t>
+          <t>4,97; 11,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,5</t>
+          <t>9,96; 24,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 41,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,07; 36,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 36,32</t>
+          <t>29,15; 45,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 34,65</t>
+          <t>27,56; 38,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,63; 28,21</t>
+          <t>28,06; 38,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,62</t>
+          <t>37,69; 54,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,02; 24,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 24,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 29,86</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>20,2; 28,38</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18,6; 24,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27,55; 41,06</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,52%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,96</t>
+          <t>3,79; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,15</t>
+          <t>4,1; 9,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,26</t>
+          <t>5,16; 9,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,52</t>
+          <t>5,1; 10,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,21; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 23,69</t>
+          <t>21,52; 30,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,59; 22,58</t>
+          <t>15,9; 22,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,0</t>
+          <t>17,52; 24,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,77</t>
+          <t>23,62; 33,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 15,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 14,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,8; 19,21</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,9; 15,51</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 15,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 21,42</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,47</t>
+          <t>2,83; 7,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,96</t>
+          <t>2,73; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,58</t>
+          <t>3,34; 7,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,51</t>
+          <t>3,78; 9,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 19,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,17</t>
+          <t>16,23; 25,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 15,78</t>
+          <t>13,88; 20,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 13,58</t>
+          <t>11,85; 17,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,64</t>
+          <t>16,86; 25,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 11,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 15,85</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,03; 13,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 11,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 16,68</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,41</t>
+          <t>4,73; 9,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,15</t>
+          <t>2,75; 8,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,7</t>
+          <t>6,01; 12,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,01; 28,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 23,05</t>
+          <t>21,41; 29,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 23,61</t>
+          <t>15,11; 23,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 15,43</t>
+          <t>22,99; 33,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 15,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 17,83</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 14,27</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 21,16</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 7,69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 8,07</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 8,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 10,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,34; 28,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,19; 23,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 23,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26,95; 32,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,72; 17,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 15,22</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 15,74</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 21,14</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28887</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66102</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55079</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75649</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>155592</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>209952</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>296164</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>300383</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>184479</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>276054</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>351243</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>376032</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13990; 49880</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43835; 94585</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36207; 81301</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>44557; 110513</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>122232; 192086</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>175389; 245653</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>251248; 340664</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>241935; 351990</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>142644; 226498</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>235166; 330454</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>302065; 403117</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>300147; 447274</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57007</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76808</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>115428</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>79336</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>261651</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>237159</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>307704</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>310862</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>318658</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>313967</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>423132</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>390198</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35339; 85177</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49542; 120078</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>83729; 161378</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>54410; 110989</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>215205; 302420</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>195596; 277629</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>264161; 366141</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>255937; 363492</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>266662; 371288</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>265634; 377980</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>363738; 497830</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>330489; 460824</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35395</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37117</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56241</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>51744</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>155340</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>159862</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>164618</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>184979</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>190735</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>196980</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>220859</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>236723</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20173; 56571</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23047; 57317</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36419; 84374</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31350; 76993</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>124498; 196879</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>130757; 194517</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>137604; 200419</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>150858; 227185</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>155630; 234663</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>161426; 236240</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>182650; 266406</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>195215; 287509</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93706</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41314</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>96045</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>350741</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>145120</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>273193</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>444447</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>186434</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>369237</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68888; 134293</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23688; 72821</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66060; 133277</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>299395; 409857</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>114794; 179289</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>225562; 325795</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>383751; 509229</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>149271; 231076</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>313772; 440109</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>214995</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>221342</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>226748</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>302773</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>923324</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>752093</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>768486</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1069417</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1138319</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>973434</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>995234</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1372190</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>170410; 264841</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>177119; 277791</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>183296; 281983</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>251136; 366402</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>836796; 1010178</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>684608; 828233</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>692821; 843618</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>970573; 1163994</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1034181; 1248946</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>885771; 1066582</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>910532; 1103112</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1252947; 1489291</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
